--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2399253.93884624</v>
+        <v>2516160.841014162</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577127</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5683460.248136259</v>
+        <v>6003590.679808084</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +673,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>17.66575161661414</v>
       </c>
       <c r="U2" t="n">
-        <v>230.009444195185</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -826,16 +828,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>101.6655972768305</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>233.5874278227089</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,19 +898,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>91.23698399075055</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>46.93907536729473</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>38.42316286477767</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>124.512978709916</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1102,25 +1104,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1135,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>301.2826915652612</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>103.2041483648794</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1293,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>124.2544657490343</v>
+        <v>87.83885303493871</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1385,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1433,10 +1435,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>72.93260026427558</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1534,19 +1536,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>58.44458185469676</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1578,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>108.3150987014993</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1622,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>292.6600420521869</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,16 +1663,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1774,7 +1776,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1783,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>105.8693099682454</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>165.472491025951</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -1907,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439297</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2005,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>155.0238266671829</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,16 +2058,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>198.3688086863422</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2144,7 +2146,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>156.9763812407572</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>20.86872779098876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2482,13 +2484,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>206.6412456638841</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>25.41729070665448</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>96.44420510686395</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>218.7757544134941</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2962,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>50.27634182650952</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>174.2755538716519</v>
       </c>
     </row>
     <row r="32">
@@ -3187,13 +3189,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>169.6356194967396</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3272,19 +3274,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>171.3263863974103</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>256.7778627223141</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>39.39633626821609</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>28.81370368495035</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>252.0837757833477</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>56.5443154065366</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>81.47467130500939</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3992,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>95.85791431430056</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>168.9733955350583</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4189,7 +4191,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>48.31560887011863</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4198,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1263.189564997102</v>
+        <v>1634.123240612468</v>
       </c>
       <c r="C2" t="n">
-        <v>1240.329239050806</v>
+        <v>1611.262914666172</v>
       </c>
       <c r="D2" t="n">
-        <v>1221.07702227621</v>
+        <v>1592.010697891576</v>
       </c>
       <c r="E2" t="n">
-        <v>795.1000824240679</v>
+        <v>1166.033758039434</v>
       </c>
       <c r="F2" t="n">
-        <v>369.9759006134681</v>
+        <v>740.909576228834</v>
       </c>
       <c r="G2" t="n">
-        <v>369.6772422433207</v>
+        <v>336.5705138182826</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>399.5154512777223</v>
+        <v>403.5871017449296</v>
       </c>
       <c r="L2" t="n">
-        <v>399.5154512777223</v>
+        <v>403.5871017449296</v>
       </c>
       <c r="M2" t="n">
-        <v>399.5154512777223</v>
+        <v>403.5871017449296</v>
       </c>
       <c r="N2" t="n">
-        <v>475.942330131692</v>
+        <v>403.5871017449296</v>
       </c>
       <c r="O2" t="n">
-        <v>932.7282368344229</v>
+        <v>882.5260259873578</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1520.30675795911</v>
+        <v>1917.262571063736</v>
       </c>
       <c r="U2" t="n">
-        <v>1287.973986044782</v>
+        <v>1658.907661660148</v>
       </c>
       <c r="V2" t="n">
-        <v>1287.973986044782</v>
+        <v>1658.907661660148</v>
       </c>
       <c r="W2" t="n">
-        <v>1287.973986044782</v>
+        <v>1658.907661660148</v>
       </c>
       <c r="X2" t="n">
-        <v>1280.294391252933</v>
+        <v>1651.228066868299</v>
       </c>
       <c r="Y2" t="n">
-        <v>1278.997525248228</v>
+        <v>1649.931200863594</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>693.5426250668169</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>576.0367215843216</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>472.1967630996066</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>367.4948293725438</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>273.848999055448</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>179.795227273052</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.4191340353616</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>126.4191340353616</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>126.4191340353616</v>
       </c>
       <c r="K3" t="n">
-        <v>493.6978991635576</v>
+        <v>126.4191340353616</v>
       </c>
       <c r="L3" t="n">
-        <v>493.6978991635576</v>
+        <v>605.3580582777898</v>
       </c>
       <c r="M3" t="n">
-        <v>950.4838058662885</v>
+        <v>1084.296982520218</v>
       </c>
       <c r="N3" t="n">
-        <v>950.4838058662885</v>
+        <v>1084.296982520218</v>
       </c>
       <c r="O3" t="n">
-        <v>1306.794406253903</v>
+        <v>1084.296982520218</v>
       </c>
       <c r="P3" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.941977668389</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.087454531168</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1853.782517177126</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1711.902581474804</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1527.134385394441</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1322.161246533707</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1125.639869366924</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>962.1625231335872</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>822.4696344868796</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>781.9743710538562</v>
+        <v>712.0614513592168</v>
       </c>
       <c r="C4" t="n">
-        <v>610.0018079327722</v>
+        <v>540.0888882381328</v>
       </c>
       <c r="D4" t="n">
-        <v>446.6850350595429</v>
+        <v>376.7721153649035</v>
       </c>
       <c r="E4" t="n">
-        <v>280.4768292123964</v>
+        <v>210.563909517757</v>
       </c>
       <c r="F4" t="n">
-        <v>280.4768292123964</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>263.4395936666639</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="L4" t="n">
-        <v>618.1289149610848</v>
+        <v>450.8827848108962</v>
       </c>
       <c r="M4" t="n">
-        <v>1009.314709931336</v>
+        <v>842.068579781147</v>
       </c>
       <c r="N4" t="n">
-        <v>1386.806220807371</v>
+        <v>1219.560090657183</v>
       </c>
       <c r="O4" t="n">
-        <v>1742.234349487134</v>
+        <v>1574.988219336946</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1865.587431258847</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1525.733439745796</v>
+        <v>1691.767416841772</v>
       </c>
       <c r="U4" t="n">
-        <v>1525.733439745796</v>
+        <v>1455.820520051157</v>
       </c>
       <c r="V4" t="n">
-        <v>1525.733439745796</v>
+        <v>1455.820520051157</v>
       </c>
       <c r="W4" t="n">
-        <v>1250.881035918309</v>
+        <v>1180.96811622367</v>
       </c>
       <c r="X4" t="n">
-        <v>1008.317139364114</v>
+        <v>938.4042196694747</v>
       </c>
       <c r="Y4" t="n">
-        <v>781.9743710538562</v>
+        <v>712.0614513592168</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>561.2807824307324</v>
+        <v>1042.205662800888</v>
       </c>
       <c r="C5" t="n">
-        <v>538.4204564844366</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D5" t="n">
-        <v>519.1682397098409</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E5" t="n">
-        <v>497.2317038981026</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>476.1479261279069</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>358.3859952497895</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>815.1719019525203</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1271.957808655251</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.957808655251</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1798.186415599625</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1798.186415599625</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1798.186415599625</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W5" t="n">
-        <v>1798.186415599625</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.466416767372</v>
+        <v>1463.350893097124</v>
       </c>
       <c r="Y5" t="n">
-        <v>981.1291467222625</v>
+        <v>1462.054027092418</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>36.9119924608267</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>308.6094817404178</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>765.3953884431487</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="L6" t="n">
-        <v>765.3953884431487</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M6" t="n">
-        <v>1222.18129514588</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N6" t="n">
-        <v>1678.967201848611</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O6" t="n">
-        <v>1678.967201848611</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1678.967201848611</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>930.2057578333502</v>
+        <v>665.0551063900352</v>
       </c>
       <c r="C7" t="n">
-        <v>758.2331947122661</v>
+        <v>493.0825432689512</v>
       </c>
       <c r="D7" t="n">
-        <v>594.9164218390368</v>
+        <v>454.2712676479637</v>
       </c>
       <c r="E7" t="n">
-        <v>428.7082159918904</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F7" t="n">
-        <v>302.9375304263186</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1628.425962247645</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U7" t="n">
-        <v>1628.425962247645</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V7" t="n">
-        <v>1346.714494855674</v>
+        <v>1372.637375483783</v>
       </c>
       <c r="W7" t="n">
-        <v>1346.714494855674</v>
+        <v>1097.784971656296</v>
       </c>
       <c r="X7" t="n">
-        <v>1346.714494855674</v>
+        <v>855.2210751021008</v>
       </c>
       <c r="Y7" t="n">
-        <v>1120.371726545416</v>
+        <v>855.2210751021008</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1416.774797953253</v>
+        <v>1113.304147418315</v>
       </c>
       <c r="C8" t="n">
-        <v>989.8740679665527</v>
+        <v>808.9781963422939</v>
       </c>
       <c r="D8" t="n">
-        <v>970.621851191957</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E8" t="n">
-        <v>866.3752366819779</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F8" t="n">
-        <v>441.2510548713781</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>814.4714747539724</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>814.4714747539724</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.257381456703</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X8" t="n">
-        <v>1433.879624209084</v>
+        <v>1534.449377714551</v>
       </c>
       <c r="Y8" t="n">
-        <v>1432.582758204378</v>
+        <v>1129.112107669441</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273858</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023297</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>772.8420314050605</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>772.8420314050605</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>1229.627938107791</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N9" t="n">
-        <v>1388.813716338606</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>405.9863905750573</v>
+        <v>548.761739098607</v>
       </c>
       <c r="C10" t="n">
-        <v>405.9863905750573</v>
+        <v>376.789175977523</v>
       </c>
       <c r="D10" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E10" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F10" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.464575560472</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1395.280127060776</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V10" t="n">
-        <v>1113.568659668805</v>
+        <v>1482.686776502612</v>
       </c>
       <c r="W10" t="n">
-        <v>838.7162558413179</v>
+        <v>1207.834372675125</v>
       </c>
       <c r="X10" t="n">
-        <v>596.152359287123</v>
+        <v>965.2704761209305</v>
       </c>
       <c r="Y10" t="n">
-        <v>596.152359287123</v>
+        <v>738.9277078106726</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2213.014655894522</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>1786.113925907822</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1362.821305092822</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>936.8443652406795</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>511.7201834300797</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G11" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>359.5929013125328</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>359.5929013125328</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L11" t="n">
-        <v>1256.585492129652</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M11" t="n">
-        <v>2153.578082946771</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N11" t="n">
-        <v>3050.570673763891</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3050.570673763891</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3050.570673763891</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023117</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3298.91962306775</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3040.564713664163</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2683.075298790412</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2286.68394909076</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2213.014655894522</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2213.014655894522</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N12" t="n">
-        <v>909.6712922473346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O12" t="n">
-        <v>1799.152570258806</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P12" t="n">
-        <v>1799.152570258806</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.4665596409584</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C13" t="n">
-        <v>610.4939965198744</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D13" t="n">
-        <v>447.1772236466451</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E13" t="n">
-        <v>388.1422924802847</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F13" t="n">
-        <v>216.2805182548452</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>216.2805182548452</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.723616382436</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.723616382436</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.53916788274</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V13" t="n">
-        <v>1473.827700490769</v>
+        <v>1953.965660114159</v>
       </c>
       <c r="W13" t="n">
-        <v>1198.975296663282</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X13" t="n">
-        <v>1198.975296663282</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y13" t="n">
-        <v>972.6325283530241</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2473.733988731111</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2046.833258744411</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1623.540637929411</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1197.563698077269</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>772.439516266669</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>368.1004538561176</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1150.596016555394</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L14" t="n">
-        <v>1712.670971633835</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M14" t="n">
-        <v>2609.663562450954</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N14" t="n">
-        <v>3506.656153268074</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O14" t="n">
-        <v>3506.656153268074</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P14" t="n">
-        <v>3506.656153268074</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023117</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3298.91962306775</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3298.91962306775</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3298.91962306775</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3298.91962306775</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3298.91962306775</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2893.582353022641</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299954</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299954</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J15" t="n">
-        <v>344.1817390425906</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K15" t="n">
-        <v>344.1817390425906</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L15" t="n">
-        <v>344.1817390425906</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="M15" t="n">
-        <v>344.1817390425906</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="N15" t="n">
-        <v>991.6906023320378</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="O15" t="n">
-        <v>1881.171880343509</v>
+        <v>4316.918643168226</v>
       </c>
       <c r="P15" t="n">
-        <v>1881.171880343509</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>884.0350298020728</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>712.0624666809888</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D16" t="n">
-        <v>548.7456938077595</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E16" t="n">
-        <v>382.537487960613</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>382.537487960613</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
-        <v>216.2805182548452</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2205.858663863301</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1962.519316089201</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U16" t="n">
-        <v>1682.334867589505</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V16" t="n">
-        <v>1575.396170651883</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="W16" t="n">
-        <v>1300.543766824396</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="X16" t="n">
-        <v>1300.543766824396</v>
+        <v>1542.793734971375</v>
       </c>
       <c r="Y16" t="n">
-        <v>1074.200998514139</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,46 +5515,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>338.6504695827662</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1054.158777558265</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1983.783825177542</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2988.0699265966</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.0699265966</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747412</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.49385590534</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399955</v>
@@ -5583,7 +5585,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
@@ -5592,28 +5594,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>681.046097256067</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C19" t="n">
-        <v>681.046097256067</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="D19" t="n">
-        <v>517.7293243828377</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E19" t="n">
-        <v>517.7293243828377</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573981</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573981</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5704,19 +5706,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1822.202732251165</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1540.491264859194</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1340.118730832585</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1097.554834278391</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y19" t="n">
-        <v>871.2120659681327</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="20">
@@ -5750,46 +5752,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399955</v>
@@ -5820,7 +5822,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
@@ -5829,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>1429.986740661465</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>531.6450242445496</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C22" t="n">
-        <v>531.6450242445496</v>
+        <v>570.9179528567321</v>
       </c>
       <c r="D22" t="n">
-        <v>368.3282513713204</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E22" t="n">
-        <v>368.3282513713204</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F22" t="n">
-        <v>368.3282513713204</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655525</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5953,7 +5955,7 @@
         <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.8109929566153</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>207.5440612468791</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>923.0523692223782</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1852.677416841655</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1013.622061704626</v>
+        <v>853.0186603771511</v>
       </c>
       <c r="C25" t="n">
-        <v>841.6494985835419</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="D25" t="n">
-        <v>678.3327257103126</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E25" t="n">
-        <v>512.1245198631661</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G25" t="n">
         <v>345.8675501573982</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2073.987209845337</v>
       </c>
       <c r="U25" t="n">
-        <v>1822.202732251165</v>
+        <v>1793.802761345641</v>
       </c>
       <c r="V25" t="n">
-        <v>1540.491264859194</v>
+        <v>1512.091293953669</v>
       </c>
       <c r="W25" t="n">
-        <v>1265.638861031707</v>
+        <v>1512.091293953669</v>
       </c>
       <c r="X25" t="n">
-        <v>1239.964830014884</v>
+        <v>1269.527397399475</v>
       </c>
       <c r="Y25" t="n">
-        <v>1013.622061704626</v>
+        <v>1043.184629089217</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5029.203358561359</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>543.5554397491844</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C28" t="n">
-        <v>371.5828766281004</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D28" t="n">
-        <v>371.5828766281004</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.191944545161</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.48047715319</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.628073325703</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X28" t="n">
-        <v>960.064176771508</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y28" t="n">
-        <v>733.72140846125</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6463,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
         <v>4997.579335409525</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.9257087544852</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9531456334012</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D31" t="n">
-        <v>634.9531456334012</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E31" t="n">
-        <v>468.7449397862547</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F31" t="n">
-        <v>296.8831655608151</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
-        <v>296.8831655608151</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>153.0868970689695</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6658,13 +6660,13 @@
         <v>1550.684777446425</v>
       </c>
       <c r="W31" t="n">
-        <v>1275.832373618938</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="X31" t="n">
-        <v>1033.268477064743</v>
+        <v>1308.12088089223</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.9257087544852</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6703,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4220.213029898572</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4928.4923090565</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6783,13 +6785,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>138.8060889717951</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.79262694784</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N33" t="n">
-        <v>1194.79262694784</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
         <v>1194.79262694784</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>373.4203922683193</v>
+        <v>3205.84032174079</v>
       </c>
       <c r="C34" t="n">
-        <v>201.4478291472353</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="D34" t="n">
-        <v>201.4478291472353</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>4139.765359144795</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>3864.912955317308</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>3622.349058763114</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.5863609803849</v>
+        <v>3396.006290452855</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>533.9931985757493</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.618246195026</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
         <v>4997.579335409525</v>
@@ -6971,13 +6973,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7017,25 +7019,25 @@
         <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>610.0460590406528</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>1446.844867123559</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="M36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>537.3606176598659</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C37" t="n">
-        <v>365.3880545387819</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D37" t="n">
-        <v>202.0712816655526</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E37" t="n">
-        <v>202.0712816655526</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0712816655526</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>1562.831153743777</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V37" t="n">
-        <v>1281.119686351806</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W37" t="n">
-        <v>1006.267282524319</v>
+        <v>1727.678888491774</v>
       </c>
       <c r="X37" t="n">
-        <v>763.7033859701238</v>
+        <v>1485.114991937579</v>
       </c>
       <c r="Y37" t="n">
-        <v>537.3606176598659</v>
+        <v>1258.772223627321</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7178,22 +7180,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1983.783825177544</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2988.069926596602</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7208,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7259,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>939.1015214887346</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>939.1015214887346</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O39" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>747.5965237391339</v>
+        <v>1125.509546729146</v>
       </c>
       <c r="C40" t="n">
-        <v>575.6239606180499</v>
+        <v>953.5369836080615</v>
       </c>
       <c r="D40" t="n">
-        <v>412.3071877448206</v>
+        <v>790.2202107348322</v>
       </c>
       <c r="E40" t="n">
-        <v>246.0989818976742</v>
+        <v>624.0120048876857</v>
       </c>
       <c r="F40" t="n">
-        <v>246.0989818976742</v>
+        <v>452.1502306622461</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>285.8932609564783</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>142.0969924646327</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7357,25 +7359,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2206.572376309211</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1963.23302853511</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1963.23302853511</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1681.521561143139</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W40" t="n">
-        <v>1406.669157315652</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="X40" t="n">
-        <v>1164.105260761457</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="Y40" t="n">
-        <v>937.7624924511995</v>
+        <v>1315.675515441211</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1881.346679045652</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>1454.445949058952</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1199.815872510116</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>774.6916906995161</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>370.3526282889648</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48424976299957</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.0877085798951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1150.596016555394</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1614.703079337055</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>1614.703079337055</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O41" t="n">
-        <v>2459.847729487868</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P41" t="n">
-        <v>3168.127008645795</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.212488149979</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3519.845194023119</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3298.919623067752</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3040.564713664165</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2683.075298790414</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2286.683949090761</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2286.683949090761</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1881.346679045652</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.9308927249114</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>79.9308927249114</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>79.9308927249114</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>916.7297008078175</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M42" t="n">
-        <v>916.7297008078175</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
-        <v>916.7297008078175</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>883.2070998158521</v>
+        <v>935.3163081599889</v>
       </c>
       <c r="C43" t="n">
-        <v>711.2345366947681</v>
+        <v>763.3437450389049</v>
       </c>
       <c r="D43" t="n">
-        <v>654.1190665871553</v>
+        <v>600.0269721656756</v>
       </c>
       <c r="E43" t="n">
-        <v>487.9108607400088</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F43" t="n">
-        <v>316.0490865145692</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G43" t="n">
-        <v>316.0490865145692</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>172.2528180227236</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302474</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S43" t="n">
-        <v>2205.858663863301</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T43" t="n">
-        <v>1962.519316089201</v>
+        <v>1869.241345563994</v>
       </c>
       <c r="U43" t="n">
-        <v>1682.334867589505</v>
+        <v>1869.241345563994</v>
       </c>
       <c r="V43" t="n">
-        <v>1400.623400197534</v>
+        <v>1869.241345563994</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.770996370047</v>
+        <v>1594.388941736507</v>
       </c>
       <c r="X43" t="n">
-        <v>883.2070998158521</v>
+        <v>1351.825045182313</v>
       </c>
       <c r="Y43" t="n">
-        <v>883.2070998158521</v>
+        <v>1125.482276872055</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1789.722035079522</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1362.821305092822</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1362.821305092822</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>936.8443652406795</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>511.7201834300797</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>107.3811210195284</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195284</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.0877085798951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1150.596016555394</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L44" t="n">
-        <v>2047.588607372514</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M44" t="n">
-        <v>2047.588607372514</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N44" t="n">
-        <v>2342.291394605965</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O44" t="n">
-        <v>2342.291394605965</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>3050.570673763893</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268076</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023119</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3423.019017948068</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3423.019017948068</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3423.019017948068</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3026.627668248414</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2614.907669416162</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.570399371052</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48424976299957</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>344.1817390425907</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>934.6666656109303</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L45" t="n">
-        <v>934.6666656109303</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M45" t="n">
-        <v>934.6666656109303</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N45" t="n">
-        <v>934.6666656109303</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O45" t="n">
-        <v>934.6666656109303</v>
+        <v>1270.928123658803</v>
       </c>
       <c r="P45" t="n">
-        <v>1335.007093396027</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2188.86183932988</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C46" t="n">
-        <v>2016.889276208796</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="D46" t="n">
-        <v>1853.572503335567</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="E46" t="n">
-        <v>1687.36429748842</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F46" t="n">
-        <v>1687.36429748842</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G46" t="n">
-        <v>1687.36429748842</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>1543.568028996574</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>1443.79946073685</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>1501.290788961008</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>1727.818390166846</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>2082.507711461266</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>2473.693506431517</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>2851.185017307553</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>3206.613145987316</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>3497.212357909217</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>3624.212488149979</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>3624.212488149979</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>3454.077440669113</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>3210.738092895013</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>3161.934447571661</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V46" t="n">
-        <v>2880.22298017969</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W46" t="n">
-        <v>2605.370576352203</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X46" t="n">
-        <v>2605.370576352203</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y46" t="n">
-        <v>2379.027808041945</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>38.0691539621999</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7988,19 +7990,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>114.4784903637084</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>521.167650509992</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8060,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681974</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>506.8734716662959</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>383.0815870834487</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>329.4930585262134</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8152,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>94.84111161026458</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>363.0332573709691</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>454.9370402678085</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>191.0626152513283</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8377,13 +8379,13 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.1908016072373</v>
+        <v>380.190801607238</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>26.57325859521377</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>457.4595408934817</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>451.134864077236</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8526,22 +8528,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>182.1367435982026</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8550,10 +8552,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8617,7 +8619,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>319.428698424509</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701171</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719402</v>
+        <v>632.4842746885297</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8766,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8778,19 +8780,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>592.5445971072224</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,25 +8929,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>606.0645223098362</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9003,31 +9005,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>675.392385071569</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>198.5979456559615</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>268.1550667350185</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9173,7 +9175,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>736.7071336234585</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9182,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9240,31 +9242,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>104.5829721389275</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>300.5735435756951</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,10 +9406,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>217.3512730059664</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>424.3574658298753</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>135.7243512442234</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9650,16 +9652,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9881,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>56.96224792398087</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>121.8329647736533</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10349,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.9095497086638</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10431,16 +10433,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>59.38718324550895</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10598,13 +10600,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>143.6953511146608</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10665,13 +10667,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>260.8293917679123</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>178.6791504825602</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10686,7 +10688,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,25 +10828,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>849.7962292804214</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>697.124756287453</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,22 +10907,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P39" t="n">
-        <v>534.642907502631</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11063,13 +11065,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>506.2262758102007</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11078,10 +11080,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>397.6042905607445</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11142,22 +11144,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>528.522094442336</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11297,19 +11299,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701175</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>334.9592058985378</v>
+        <v>751.2280472965118</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11318,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11388,10 +11390,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>426.1551116948253</v>
+        <v>116.6167335079122</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>334.6701985796547</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>106.1015419339782</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.229652688518627</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>173.0250427498059</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>58.6068496012044</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23895,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6.659778477314092</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>73.73507110286994</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.707223903739816</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>203.2106128361666</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>34.26470863247491</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>214.7209668819984</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>68.10191868181103</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>22.1301998828649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>48.49454075061726</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>49.80378675550344</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.6172179931335506</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>66.3924592046823</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -25093,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>16.93792262753468</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>20.60474129238463</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>59.37454630891069</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.6199933211061</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>166.975918823502</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>105.1392897379604</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>83.07145248366558</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>122.8584009315126</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.279441954814814</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>229.0669951445801</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>511115.8791963107</v>
+        <v>512033.8065770965</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>511115.8791963107</v>
+        <v>515005.8540560945</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>511115.8791963107</v>
+        <v>515005.8540560945</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>414200.4245030944</v>
+        <v>520939.5361803303</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>414200.4245030945</v>
+        <v>520939.5361803303</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>520939.5361803303</v>
+        <v>520939.5361803301</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>414200.4245030945</v>
+        <v>520939.5361803303</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>414200.4245030945</v>
+        <v>520939.5361803301</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538759.4679103255</v>
+        <v>538759.4679103257</v>
       </c>
       <c r="C2" t="n">
-        <v>538759.4679103259</v>
+        <v>538759.4679103257</v>
       </c>
       <c r="D2" t="n">
         <v>538759.4679103257</v>
       </c>
       <c r="E2" t="n">
-        <v>413372.7938833158</v>
+        <v>519878.1229021387</v>
       </c>
       <c r="F2" t="n">
-        <v>413372.7938833159</v>
+        <v>519878.1229021384</v>
       </c>
       <c r="G2" t="n">
-        <v>519878.1229021386</v>
+        <v>519878.1229021384</v>
       </c>
       <c r="H2" t="n">
-        <v>519878.1229021389</v>
+        <v>519878.1229021384</v>
       </c>
       <c r="I2" t="n">
         <v>519878.1229021383</v>
       </c>
       <c r="J2" t="n">
-        <v>519878.1229021386</v>
+        <v>519878.1229021384</v>
       </c>
       <c r="K2" t="n">
-        <v>519878.1229021386</v>
+        <v>519878.1229021382</v>
       </c>
       <c r="L2" t="n">
         <v>519878.1229021383</v>
       </c>
       <c r="M2" t="n">
-        <v>519878.1229021387</v>
+        <v>519878.1229021391</v>
       </c>
       <c r="N2" t="n">
         <v>519878.1229021386</v>
       </c>
       <c r="O2" t="n">
-        <v>413372.793883316</v>
+        <v>519878.1229021387</v>
       </c>
       <c r="P2" t="n">
-        <v>413372.7938833159</v>
+        <v>519878.1229021387</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361226</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701983</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191810.9398986468</v>
+        <v>187607.6695456101</v>
       </c>
       <c r="C4" t="n">
-        <v>191810.9398986468</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="D4" t="n">
-        <v>191810.9398986468</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="E4" t="n">
-        <v>46140.42348557887</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="F4" t="n">
-        <v>46140.42348557887</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187959</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187957</v>
       </c>
       <c r="I4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
         <v>58064.51385187964</v>
@@ -26448,16 +26450,16 @@
         <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187959</v>
       </c>
       <c r="N4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>46140.42348557888</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="P4" t="n">
-        <v>46140.42348557888</v>
+        <v>58064.5138518796</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>130642.0931233298</v>
+        <v>125985.8794729632</v>
       </c>
       <c r="C6" t="n">
-        <v>285267.8137414507</v>
+        <v>273907.9809201075</v>
       </c>
       <c r="D6" t="n">
-        <v>285267.8137414505</v>
+        <v>297314.8145937198</v>
       </c>
       <c r="E6" t="n">
-        <v>179380.6725682554</v>
+        <v>168324.1903051888</v>
       </c>
       <c r="F6" t="n">
-        <v>312144.3405778575</v>
+        <v>384063.5468618291</v>
       </c>
       <c r="G6" t="n">
-        <v>281903.6267675195</v>
+        <v>384063.5468618291</v>
       </c>
       <c r="H6" t="n">
-        <v>384063.5468618296</v>
+        <v>384063.5468618292</v>
       </c>
       <c r="I6" t="n">
-        <v>384063.5468618288</v>
+        <v>384063.546861829</v>
       </c>
       <c r="J6" t="n">
-        <v>263341.0299190723</v>
+        <v>257486.2782815403</v>
       </c>
       <c r="K6" t="n">
-        <v>384063.5468618292</v>
+        <v>365416.946504809</v>
       </c>
       <c r="L6" t="n">
         <v>384063.546861829</v>
       </c>
       <c r="M6" t="n">
-        <v>273254.186752696</v>
+        <v>203999.6754066622</v>
       </c>
       <c r="N6" t="n">
-        <v>384063.5468618292</v>
+        <v>384063.5468618293</v>
       </c>
       <c r="O6" t="n">
-        <v>312144.3405778575</v>
+        <v>384063.5468618294</v>
       </c>
       <c r="P6" t="n">
-        <v>312144.3405778573</v>
+        <v>384063.5468618295</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374946</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374946</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353622</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353622</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>201.050563629199</v>
       </c>
       <c r="U2" t="n">
-        <v>25.76191611436681</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27546,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>139.2403570195285</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>43.7951761919899</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -27616,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>331.3947386960823</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27667,22 +27669,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>171.7772398785185</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>123.2604422797193</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>45.63017777326917</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27855,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>121.3490311215717</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>318.5130220887416</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>37.4291393954627</v>
+        <v>73.84475210955829</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34699,7 +34701,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.304553167390556</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>77.19886752926237</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>359.9096973612264</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>307.7222173213847</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34872,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>70.22154884547963</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>432.5378064344752</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.3155769623498</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,13 +35099,13 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115368</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>5.82435761961338</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>419.1474984608587</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35246,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>444.605878150503</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>160.7937153846609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,10 +35272,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35337,7 +35339,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>290.0087389389225</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374942</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374942</v>
+        <v>595.2046518540836</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>571.2015688936808</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>567.7524798772133</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374942</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>654.0493568580274</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>175.4260559337393</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>238.735107249432</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35893,7 +35895,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>699.4275107890124</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35902,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,10 +36126,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>181.2265984013684</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>403.0144376163336</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>106.3043917586369</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36370,16 +36372,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36601,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>19.53098502454905</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.78487510406572</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>36.87209653127939</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37318,13 +37320,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>106.3043917586367</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37385,13 +37387,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>238.430157934579</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>155.5823699702323</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>811.4841868477985</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>659.5493944772218</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P39" t="n">
-        <v>512.8720662978023</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,13 +37785,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>468.7950129107689</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37798,10 +37800,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>361.4796159561464</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>505.3502047201138</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,7 +37943,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L43" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115391</v>
       </c>
       <c r="M43" t="n">
         <v>395.137166636617</v>
@@ -38017,19 +38019,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374946</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>297.6795830640918</v>
+        <v>713.9484244620658</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38038,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>404.3842704899966</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2516160.841014162</v>
+        <v>2515464.179809073</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114755</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6003590.679808084</v>
+        <v>6003590.679808085</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -667,16 +667,16 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>17.66575161661414</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>209.2318251717293</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>128.9342698104344</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>233.5874278227089</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>91.23698399075055</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -910,13 +910,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>49.49512077555075</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>38.42316286477767</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>213.8764542074653</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1122,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>301.2826915652612</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
@@ -1296,16 +1296,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>87.83885303493871</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1375,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068515</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1539,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>58.7358931652033</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>108.3150987014993</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1669,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1770,10 +1770,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1782,10 +1782,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>3.554365680750263</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.472491025951</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924954</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -1897,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2004,22 +2004,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>155.0238266671829</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2146,7 +2146,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>156.9763812407572</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>172.7557593945127</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2478,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>103.8121020651556</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>206.6412456638841</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2538,7 +2538,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>218.7757544134941</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2955,16 +2955,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3012,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.2755538716519</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>169.6356194967396</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3274,19 +3274,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855911</v>
+        <v>103.3236211855901</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>171.3263863974103</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>106.0606729676882</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396256</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>39.39633626821609</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3751,7 +3751,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3793,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458126</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3900,13 +3900,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>81.47467130500939</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>157.7965624291611</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>168.9733955350583</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1634.123240612468</v>
+        <v>528.1740540056944</v>
       </c>
       <c r="C2" t="n">
-        <v>1611.262914666172</v>
+        <v>505.3137280593986</v>
       </c>
       <c r="D2" t="n">
-        <v>1592.010697891576</v>
+        <v>486.0615112848029</v>
       </c>
       <c r="E2" t="n">
-        <v>1166.033758039434</v>
+        <v>464.1249754730645</v>
       </c>
       <c r="F2" t="n">
-        <v>740.909576228834</v>
+        <v>443.0411977028688</v>
       </c>
       <c r="G2" t="n">
-        <v>336.5705138182826</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>42.2045123844041</v>
       </c>
       <c r="K2" t="n">
-        <v>403.5871017449296</v>
+        <v>521.1434366268325</v>
       </c>
       <c r="L2" t="n">
-        <v>403.5871017449296</v>
+        <v>1000.082360869261</v>
       </c>
       <c r="M2" t="n">
-        <v>403.5871017449296</v>
+        <v>1000.082360869261</v>
       </c>
       <c r="N2" t="n">
-        <v>403.5871017449296</v>
+        <v>1000.082360869261</v>
       </c>
       <c r="O2" t="n">
-        <v>882.5260259873578</v>
+        <v>1000.082360869261</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229786</v>
+        <v>1479.021285111689</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733969</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615871</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="T2" t="n">
-        <v>1917.262571063736</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="U2" t="n">
-        <v>1658.907661660148</v>
+        <v>1572.384561085425</v>
       </c>
       <c r="V2" t="n">
-        <v>1658.907661660148</v>
+        <v>1361.039283134183</v>
       </c>
       <c r="W2" t="n">
-        <v>1658.907661660148</v>
+        <v>1361.039283134183</v>
       </c>
       <c r="X2" t="n">
-        <v>1651.228066868299</v>
+        <v>1353.359688342334</v>
       </c>
       <c r="Y2" t="n">
-        <v>1649.931200863594</v>
+        <v>948.0224182972245</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668169</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843216</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996066</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725438</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>273.848999055448</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>179.795227273052</v>
+        <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353616</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4191340353616</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J3" t="n">
-        <v>126.4191340353616</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="K3" t="n">
-        <v>126.4191340353616</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="L3" t="n">
-        <v>605.3580582777898</v>
+        <v>328.5536830608389</v>
       </c>
       <c r="M3" t="n">
-        <v>1084.296982520218</v>
+        <v>807.4926073032673</v>
       </c>
       <c r="N3" t="n">
-        <v>1084.296982520218</v>
+        <v>1286.431531545696</v>
       </c>
       <c r="O3" t="n">
-        <v>1084.296982520218</v>
+        <v>1286.431531545696</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.941977668389</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.087454531168</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615871</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177126</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474804</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394441</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533707</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366924</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335872</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868796</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>712.0614513592168</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="C4" t="n">
-        <v>540.0888882381328</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="D4" t="n">
-        <v>376.7721153649035</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="E4" t="n">
-        <v>210.563909517757</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="F4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="G4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="K4" t="n">
-        <v>96.19346351647545</v>
+        <v>165.7127968735008</v>
       </c>
       <c r="L4" t="n">
-        <v>450.8827848108962</v>
+        <v>520.4021181679216</v>
       </c>
       <c r="M4" t="n">
-        <v>842.068579781147</v>
+        <v>911.5879131381723</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.560090657183</v>
+        <v>1289.079424014208</v>
       </c>
       <c r="O4" t="n">
-        <v>1574.988219336946</v>
+        <v>1644.507552693971</v>
       </c>
       <c r="P4" t="n">
-        <v>1865.587431258847</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615871</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615871</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841772</v>
+        <v>1474.59375604808</v>
       </c>
       <c r="U4" t="n">
-        <v>1455.820520051157</v>
+        <v>1194.409307548385</v>
       </c>
       <c r="V4" t="n">
-        <v>1455.820520051157</v>
+        <v>912.6978401564133</v>
       </c>
       <c r="W4" t="n">
-        <v>1180.96811622367</v>
+        <v>637.8454363289263</v>
       </c>
       <c r="X4" t="n">
-        <v>938.4042196694747</v>
+        <v>395.2815397747314</v>
       </c>
       <c r="Y4" t="n">
-        <v>712.0614513592168</v>
+        <v>168.9387714644734</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1042.205662800888</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C5" t="n">
-        <v>950.0470931132616</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D5" t="n">
-        <v>930.7948763386659</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,19 +4570,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
         <v>1651.269438076291</v>
@@ -4603,16 +4603,16 @@
         <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1867.421837588626</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="W5" t="n">
-        <v>1471.030487888973</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X5" t="n">
-        <v>1463.350893097124</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y5" t="n">
-        <v>1462.054027092418</v>
+        <v>1761.899316134963</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>751.8547856608809</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608809</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608809</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.0551063900352</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>493.0825432689512</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>454.2712676479637</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>288.0630618008172</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4731,46 +4731,46 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.53329137545</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1654.348842875754</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1372.637375483783</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1097.784971656296</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>855.2210751021008</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>855.2210751021008</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1113.304147418315</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C8" t="n">
-        <v>808.9781963422939</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D8" t="n">
-        <v>789.7259795676982</v>
+        <v>895.8980050821372</v>
       </c>
       <c r="E8" t="n">
-        <v>363.7490397155557</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>342.66526194536</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4804,52 +4804,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O8" t="n">
-        <v>1145.829295018124</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P8" t="n">
-        <v>1696.494830002562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.1289725064</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.1289725064</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X8" t="n">
-        <v>1534.449377714551</v>
+        <v>2167.236586180072</v>
       </c>
       <c r="Y8" t="n">
-        <v>1129.112107669441</v>
+        <v>1761.899316134963</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>756.3555336978366</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>1307.021068682275</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N9" t="n">
-        <v>1307.021068682275</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>548.761739098607</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>376.789175977523</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>288.0630618008172</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>288.0630618008172</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
         <v>288.0630618008172</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1482.686776502612</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1207.834372675125</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>965.2704761209305</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>738.9277078106726</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063318</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076618</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I11" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J11" t="n">
         <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2398.817321261059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596603</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747415</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409526</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209201</v>
       </c>
       <c r="U11" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805613</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399957</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354848</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G12" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="L12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="M12" t="n">
-        <v>102.3027134058285</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="N12" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
         <v>1910.990343986338</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1185.483835930065</v>
+        <v>747.596523739134</v>
       </c>
       <c r="C13" t="n">
-        <v>1013.511272808982</v>
+        <v>575.62396061805</v>
       </c>
       <c r="D13" t="n">
-        <v>850.1944999357522</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E13" t="n">
-        <v>683.9862940886057</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F13" t="n">
-        <v>512.1245198631661</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G13" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J13" t="n">
         <v>159.7940416299866</v>
@@ -5205,7 +5205,7 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M13" t="n">
         <v>1132.196759100495</v>
@@ -5217,34 +5217,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578201</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818963</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818963</v>
       </c>
       <c r="S13" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338098</v>
       </c>
       <c r="T13" t="n">
-        <v>2235.67712750613</v>
+        <v>2053.251508322741</v>
       </c>
       <c r="U13" t="n">
-        <v>2235.67712750613</v>
+        <v>1773.067059823045</v>
       </c>
       <c r="V13" t="n">
-        <v>1953.965660114159</v>
+        <v>1491.355592431074</v>
       </c>
       <c r="W13" t="n">
-        <v>1844.556469506584</v>
+        <v>1216.503188603587</v>
       </c>
       <c r="X13" t="n">
-        <v>1601.992572952389</v>
+        <v>973.939292049392</v>
       </c>
       <c r="Y13" t="n">
-        <v>1375.649804642131</v>
+        <v>747.596523739134</v>
       </c>
     </row>
     <row r="14">
@@ -5266,58 +5266,58 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="K14" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813277</v>
       </c>
       <c r="L14" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M14" t="n">
-        <v>2398.817321261059</v>
+        <v>2129.375202991804</v>
       </c>
       <c r="N14" t="n">
-        <v>3375.06837974776</v>
+        <v>3105.626261478505</v>
       </c>
       <c r="O14" t="n">
-        <v>4220.213029898572</v>
+        <v>3950.770911629317</v>
       </c>
       <c r="P14" t="n">
-        <v>4928.4923090565</v>
+        <v>4659.050190787245</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209201</v>
       </c>
       <c r="U14" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805613</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399955</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>3453.877904731005</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G15" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I15" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K15" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="L15" t="n">
-        <v>4143.246847793825</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="M15" t="n">
-        <v>4143.246847793825</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="N15" t="n">
-        <v>4143.246847793825</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O15" t="n">
-        <v>4316.918643168226</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1185.483835930065</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C16" t="n">
-        <v>1013.511272808982</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D16" t="n">
-        <v>850.1944999357522</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886057</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F16" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J16" t="n">
         <v>159.7940416299866</v>
@@ -5442,7 +5442,7 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M16" t="n">
         <v>1132.196759100495</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1785.357631525569</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1785.357631525569</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1785.357631525569</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X16" t="n">
-        <v>1542.793734971375</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y16" t="n">
-        <v>1375.649804642131</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063318</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076618</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261618</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I17" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1007.532766690844</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690844</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109902</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596603</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747415</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409526</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.842805209201</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805613</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399957</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354848</v>
       </c>
     </row>
     <row r="18">
@@ -5582,40 +5582,40 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G18" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="M18" t="n">
-        <v>374.0002026854196</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="N18" t="n">
-        <v>374.0002026854196</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="O18" t="n">
-        <v>648.6278400003578</v>
+        <v>1861.413050227143</v>
       </c>
       <c r="P18" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>568.9456755096874</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>568.9456755096874</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I19" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J19" t="n">
         <v>159.7940416299866</v>
@@ -5679,7 +5679,7 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M19" t="n">
         <v>1132.196759100495</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>759.1116442217531</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,49 +5752,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>692.7876399741681</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>742.8905159778161</v>
+        <v>612.3940204581199</v>
       </c>
       <c r="C22" t="n">
-        <v>570.9179528567321</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="D22" t="n">
-        <v>412.355951603442</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E22" t="n">
-        <v>412.355951603442</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2108.214973753792</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1828.030525254097</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.8905159778161</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="23">
@@ -5989,19 +5989,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>207.5440612468791</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>923.0523692223782</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1852.677416841655</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2856.963518260713</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3833.214576747414</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
         <v>3833.214576747414</v>
@@ -6065,19 +6065,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>853.0186603771511</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>681.0460972560671</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D25" t="n">
-        <v>517.7293243828378</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E25" t="n">
-        <v>517.7293243828378</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F25" t="n">
-        <v>345.8675501573982</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2073.987209845337</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1793.802761345641</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1512.091293953669</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1512.091293953669</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1269.527397399475</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>1043.184629089217</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6244,10 +6244,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4573.117879057176</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>5029.203358561359</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,25 +6302,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4676.976398979054</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4676.976398979054</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4676.976398979054</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>4676.976398979054</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>4434.41250242486</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6472,19 +6472,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>941.9189991784958</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1832.396244838396</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1550.684777446425</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1550.684777446425</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1308.12088089223</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.084967890562</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6706,19 +6706,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6776,22 +6776,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>305.3113489363686</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M33" t="n">
-        <v>305.3113489363686</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3113489363686</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
         <v>1194.79262694784</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3205.84032174079</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3034.491211138023</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3034.491211138023</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3034.491211138023</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4945.000622810562</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4701.661275036462</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4421.476826536767</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4139.765359144795</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3864.912955317308</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3622.349058763114</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3396.006290452855</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6919,67 +6919,67 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7007,37 +7007,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.799010768326</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M36" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N36" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O36" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.715267670341</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>353.2309747943289</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>353.2309747943289</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>246.0989818976741</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>246.0989818976741</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>2002.531292319261</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>2002.531292319261</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1727.678888491774</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1485.114991937579</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1258.772223627321</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7156,70 +7156,70 @@
         <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883215</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623564</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2184.700581617281</v>
+        <v>2585.460682495985</v>
       </c>
       <c r="N38" t="n">
-        <v>3160.951640103982</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O38" t="n">
-        <v>4006.096290254794</v>
+        <v>4406.856391133498</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1125.509546729146</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>953.5369836080615</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>790.2202107348322</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>624.0120048876857</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>452.1502306622461</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>285.8932609564783</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0969924646327</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1542.018283751469</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1542.018283751469</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1542.018283751469</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1315.675515441211</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
         <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,52 +7411,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="M41" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="N41" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O41" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P41" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>855.0038060102931</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>935.3163081599889</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="C43" t="n">
-        <v>763.3437450389049</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D43" t="n">
-        <v>600.0269721656756</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E43" t="n">
-        <v>517.7293243828378</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302474</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.580693338095</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>1869.241345563994</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>1869.241345563994</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1869.241345563994</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>1594.388941736507</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X43" t="n">
-        <v>1351.825045182313</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y43" t="n">
-        <v>1125.482276872055</v>
+        <v>630.5386621904802</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>464.9061722227241</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L44" t="n">
-        <v>1394.531219842001</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M44" t="n">
-        <v>2398.817321261059</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478504</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q44" t="n">
         <v>5115.135670291427</v>
@@ -7693,7 +7693,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O45" t="n">
-        <v>1270.928123658803</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>516.5477476675582</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C46" t="n">
-        <v>345.8675501573982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D46" t="n">
-        <v>345.8675501573982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E46" t="n">
-        <v>345.8675501573982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y46" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>32.95771412405789</v>
       </c>
       <c r="K2" t="n">
-        <v>38.0691539621999</v>
+        <v>519.5412919487774</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865909</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -7993,16 +7993,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>521.167650509992</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641992</v>
+        <v>521.3520529641994</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681974</v>
+        <v>40.85251953133096</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662959</v>
+        <v>506.873471666296</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675097</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>329.4930585262134</v>
+        <v>505.5475323587967</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>149.2582520094629</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>94.84111161026458</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>181.8548408418185</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8297,28 +8297,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>454.9370402678085</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8379,7 +8379,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.190801607238</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
@@ -8464,19 +8464,19 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>205.0632038737858</v>
       </c>
       <c r="Q8" t="n">
-        <v>451.134864077236</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647325</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,16 +8692,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>632.4842746885297</v>
+        <v>924.1790155406107</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8777,19 +8777,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>499.6833922165333</v>
       </c>
       <c r="O12" t="n">
-        <v>657.8632399032651</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>423.2283679410479</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8947,10 +8947,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>105.9095497086638</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>667.8705234938802</v>
       </c>
       <c r="O15" t="n">
-        <v>198.5979456559615</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747281</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>736.7071336234585</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9257,16 +9257,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>300.5735435756951</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>71.84891570906657</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,13 +9406,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>877.2336749314295</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>61.41381912716452</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>135.7243512442234</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,13 +9646,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>121.8329647736533</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,28 +9950,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>248.2838641991609</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10354,7 +10354,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10363,13 +10363,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130257</v>
       </c>
       <c r="P32" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>227.5743145228559</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10442,7 +10442,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646188</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>143.6953511146608</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>375.1268140734642</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>178.6791504825602</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10682,13 +10682,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,10 +10828,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>517.654651463558</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>697.124756287453</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10898,31 +10898,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11065,7 +11065,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646188</v>
       </c>
       <c r="M41" t="n">
         <v>37.43126289943181</v>
@@ -11080,7 +11080,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>397.6042905607445</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11135,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,10 +11156,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
@@ -11308,7 +11308,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>751.2280472965118</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11317,7 +11317,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P45" t="n">
-        <v>116.6167335079122</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>182.1700611311557</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>236.5838919079027</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.6068496012044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>6.659778477314092</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>4.707223903739816</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>68.15019490184628</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>66.44073542471752</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.26470863247491</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>22.1301998828649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24888,10 +24888,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>49.80378675550344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6172179931335506</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25086,7 +25086,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.93792262753468</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>64.082483515497</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>59.37454630891069</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>83.07145248366558</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>66.2827781979943</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1.279441954814814</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26034,16 +26034,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>520939.5361803303</v>
+        <v>520939.5361803304</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>520939.5361803301</v>
+        <v>520939.5361803303</v>
       </c>
     </row>
     <row r="9">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>520939.5361803301</v>
+        <v>520939.5361803303</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538759.4679103257</v>
+        <v>538759.4679103256</v>
       </c>
       <c r="C2" t="n">
-        <v>538759.4679103257</v>
+        <v>538759.4679103256</v>
       </c>
       <c r="D2" t="n">
-        <v>538759.4679103257</v>
+        <v>538759.4679103259</v>
       </c>
       <c r="E2" t="n">
+        <v>519878.1229021389</v>
+      </c>
+      <c r="F2" t="n">
+        <v>519878.1229021386</v>
+      </c>
+      <c r="G2" t="n">
         <v>519878.1229021387</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>519878.1229021388</v>
+      </c>
+      <c r="I2" t="n">
+        <v>519878.1229021387</v>
+      </c>
+      <c r="J2" t="n">
+        <v>519878.1229021382</v>
+      </c>
+      <c r="K2" t="n">
         <v>519878.1229021384</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>519878.1229021384</v>
       </c>
-      <c r="H2" t="n">
-        <v>519878.1229021384</v>
-      </c>
-      <c r="I2" t="n">
-        <v>519878.1229021383</v>
-      </c>
-      <c r="J2" t="n">
-        <v>519878.1229021384</v>
-      </c>
-      <c r="K2" t="n">
-        <v>519878.1229021382</v>
-      </c>
-      <c r="L2" t="n">
-        <v>519878.1229021383</v>
-      </c>
       <c r="M2" t="n">
-        <v>519878.1229021391</v>
+        <v>519878.1229021385</v>
       </c>
       <c r="N2" t="n">
-        <v>519878.1229021386</v>
+        <v>519878.1229021387</v>
       </c>
       <c r="O2" t="n">
         <v>519878.1229021387</v>
       </c>
       <c r="P2" t="n">
-        <v>519878.1229021387</v>
+        <v>519878.1229021388</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361226</v>
+        <v>23406.83367361221</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566407</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701983</v>
+        <v>18646.60035701978</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187607.6695456101</v>
+        <v>187607.66954561</v>
       </c>
       <c r="C4" t="n">
-        <v>173998.4022791778</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="D4" t="n">
         <v>173998.4022791778</v>
@@ -26432,10 +26432,10 @@
         <v>58064.51385187964</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187959</v>
+        <v>58064.51385187957</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187957</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="I4" t="n">
         <v>58064.51385187964</v>
@@ -26450,16 +26450,16 @@
         <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187959</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="N4" t="n">
+        <v>58064.51385187967</v>
+      </c>
+      <c r="O4" t="n">
+        <v>58064.51385187963</v>
+      </c>
+      <c r="P4" t="n">
         <v>58064.51385187964</v>
-      </c>
-      <c r="O4" t="n">
-        <v>58064.51385187964</v>
-      </c>
-      <c r="P4" t="n">
-        <v>58064.5138518796</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,13 +26502,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="P5" t="n">
         <v>77750.06218842969</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125985.8794729632</v>
+        <v>125985.8794729631</v>
       </c>
       <c r="C6" t="n">
         <v>273907.9809201075</v>
       </c>
       <c r="D6" t="n">
-        <v>297314.8145937198</v>
+        <v>297314.8145937199</v>
       </c>
       <c r="E6" t="n">
-        <v>168324.1903051888</v>
+        <v>168273.1596430045</v>
       </c>
       <c r="F6" t="n">
-        <v>384063.5468618291</v>
+        <v>384012.5161996449</v>
       </c>
       <c r="G6" t="n">
-        <v>384063.5468618291</v>
+        <v>384012.5161996452</v>
       </c>
       <c r="H6" t="n">
-        <v>384063.5468618292</v>
+        <v>384012.5161996453</v>
       </c>
       <c r="I6" t="n">
-        <v>384063.546861829</v>
+        <v>384012.5161996451</v>
       </c>
       <c r="J6" t="n">
-        <v>257486.2782815403</v>
+        <v>257435.2476193558</v>
       </c>
       <c r="K6" t="n">
-        <v>365416.946504809</v>
+        <v>365365.915842625</v>
       </c>
       <c r="L6" t="n">
-        <v>384063.546861829</v>
+        <v>384012.5161996448</v>
       </c>
       <c r="M6" t="n">
-        <v>203999.6754066622</v>
+        <v>203948.6447444773</v>
       </c>
       <c r="N6" t="n">
-        <v>384063.5468618293</v>
+        <v>384012.5161996451</v>
       </c>
       <c r="O6" t="n">
-        <v>384063.5468618294</v>
+        <v>384012.5161996452</v>
       </c>
       <c r="P6" t="n">
-        <v>384063.5468618295</v>
+        <v>384012.5161996452</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26822,13 +26822,13 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
         <v>1278.783917572857</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572629</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572629</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27387,16 +27387,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>201.050563629199</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>144.6826955532837</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>59.33003921451058</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>43.7951761919899</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>331.3947386960823</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>304.4193999494623</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>123.2604422797193</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>65.01789851058612</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>121.3490311215717</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>342.9323154271054</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28016,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>73.84475210955829</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.130616029827952e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>6.032981521760424e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>3.537754638471368</v>
       </c>
       <c r="K2" t="n">
-        <v>2.304553167390556</v>
+        <v>483.776691153968</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153968</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539679</v>
+        <v>18.3374328171014</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153968</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>307.7222173213847</v>
+        <v>483.776691153968</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>128.2935975567509</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>70.22154884547963</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35017,28 +35017,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>432.5378064344752</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35099,7 +35099,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115368</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35184,19 +35184,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="Q8" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>444.605878150503</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>595.2046518540836</v>
+        <v>886.8993927061647</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>478.3403640029916</v>
       </c>
       <c r="O12" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35585,7 +35585,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968757</v>
       </c>
       <c r="Q13" t="n">
         <v>128.2829598391535</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416161</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35667,10 +35667,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>69.78487510406572</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>646.5274952803386</v>
       </c>
       <c r="O15" t="n">
-        <v>175.4260559337393</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799187</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>699.4275107890124</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35904,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>277.4016538534729</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>50.0780745042379</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,13 +36126,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>839.8024120319977</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>106.3043917586369</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,13 +36366,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
         <v>715.433615311038</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>86.80031487885682</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37083,13 +37083,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="P32" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>205.0592278086264</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,7 +37162,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319959</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>106.3043917586367</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>155.5823699702323</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,10 +37548,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641263</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>659.5493944772218</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319959</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>361.4796159561464</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,7 +37943,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L43" t="n">
-        <v>358.2720417115391</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M43" t="n">
         <v>395.137166636617</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
@@ -38028,7 +38028,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>713.9484244620658</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38037,7 +38037,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P45" t="n">
-        <v>94.84589230308353</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
